--- a/grafice/Grafice.xlsx
+++ b/grafice/Grafice.xlsx
@@ -148,12 +148,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foaie1!$A$2:$A$6</c:f>
+              <c:f>Foaie1!$A$2:$A$7</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foaie1!$B$2:$B$6</c:f>
+              <c:f>Foaie1!$B$2:$B$7</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -196,12 +196,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foaie1!$A$2:$A$6</c:f>
+              <c:f>Foaie1!$A$2:$A$7</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foaie1!$C$2:$C$6</c:f>
+              <c:f>Foaie1!$C$2:$C$7</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -244,21 +244,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foaie1!$A$2:$A$6</c:f>
+              <c:f>Foaie1!$A$2:$A$7</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foaie1!$D$2:$D$6</c:f>
+              <c:f>Foaie1!$D$2:$D$7</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1995406402"/>
-        <c:axId val="750680426"/>
+        <c:axId val="127916890"/>
+        <c:axId val="2021512574"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1995406402"/>
+        <c:axId val="127916890"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -310,10 +310,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="750680426"/>
+        <c:crossAx val="2021512574"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="750680426"/>
+        <c:axId val="2021512574"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +388,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1995406402"/>
+        <c:crossAx val="127916890"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -670,7 +670,7 @@
         <v>1.461764</v>
       </c>
       <c r="C2" s="2">
-        <v>0.437839</v>
+        <v>0.257839</v>
       </c>
       <c r="D2" s="2">
         <v>0.046759</v>
@@ -685,7 +685,7 @@
         <v>13.195434</v>
       </c>
       <c r="C3" s="2">
-        <v>3.46801</v>
+        <v>2.02801</v>
       </c>
       <c r="D3" s="2">
         <v>0.345365</v>
@@ -700,7 +700,7 @@
         <v>44.031673</v>
       </c>
       <c r="C4" s="2">
-        <v>11.767325</v>
+        <v>6.947325</v>
       </c>
       <c r="D4" s="2">
         <v>1.142244</v>
@@ -715,7 +715,7 @@
         <v>125.100342</v>
       </c>
       <c r="C5" s="2">
-        <v>28.936396</v>
+        <v>17.786396</v>
       </c>
       <c r="D5" s="2">
         <v>2.671518</v>
@@ -730,12 +730,26 @@
         <v>238.416779</v>
       </c>
       <c r="C6" s="2">
-        <v>56.849007</v>
+        <v>35.039007</v>
       </c>
       <c r="D6" s="2">
         <v>5.18</v>
       </c>
       <c r="E6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>3000.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>771.162</v>
+      </c>
+      <c r="C7" s="1">
+        <v>117.44</v>
+      </c>
+      <c r="D7" s="1">
+        <v>17.134</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
